--- a/Método de identificación/UNIÓN DE CARACTERISTICAS/pruebasDM - kfold.xlsx
+++ b/Método de identificación/UNIÓN DE CARACTERISTICAS/pruebasDM - kfold.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Concatenadas_disimilitud_homoge" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -940,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,19 +1322,19 @@
         <v>0.77520396270396263</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" ref="G15:J15" si="0">AVERAGE(G7:G14)</f>
+        <f>AVERAGE(G7:G14)</f>
         <v>0.78644798011397343</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H7:H14)</f>
         <v>0.75392332892332892</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I7:I14)</f>
         <v>0.79805708827090416</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J7:J14)</f>
         <v>0.77599020859711665</v>
       </c>
     </row>
@@ -1747,19 +1748,19 @@
         <v>0.67954961704961703</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" ref="G31" si="1">AVERAGE(G23:G30)</f>
+        <f>AVERAGE(G23:G30)</f>
         <v>0.6974387194225623</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" ref="H31" si="2">AVERAGE(H23:H30)</f>
+        <f>AVERAGE(H23:H30)</f>
         <v>0.64853603603603593</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" ref="I31" si="3">AVERAGE(I23:I30)</f>
+        <f>AVERAGE(I23:I30)</f>
         <v>0.71543521712107239</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" ref="J31" si="4">AVERAGE(J23:J30)</f>
+        <f>AVERAGE(J23:J30)</f>
         <v>0.68198562657855422</v>
       </c>
     </row>
@@ -2173,19 +2174,19 @@
         <v>0.70065351315351321</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" ref="G47" si="5">AVERAGE(G39:G46)</f>
+        <f>AVERAGE(G39:G46)</f>
         <v>0.71989232940044678</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" ref="H47" si="6">AVERAGE(H39:H46)</f>
+        <f>AVERAGE(H39:H46)</f>
         <v>0.67070654570654564</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" ref="I47" si="7">AVERAGE(I39:I46)</f>
+        <f>AVERAGE(I39:I46)</f>
         <v>0.73941269101630946</v>
       </c>
       <c r="J47" s="8">
-        <f t="shared" ref="J47" si="8">AVERAGE(J39:J46)</f>
+        <f>AVERAGE(J39:J46)</f>
         <v>0.7050596183614275</v>
       </c>
     </row>
@@ -2263,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,19 +2629,19 @@
         <v>0.74517700041893586</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" ref="G14:J14" si="0">AVERAGE(G6:G13)</f>
+        <f>AVERAGE(G6:G13)</f>
         <v>0.76345857872037626</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H6:H13)</f>
         <v>0.71773165609168477</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I6:I13)</f>
         <v>0.77673965132311895</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J6:J13)</f>
         <v>0.74723565370740186</v>
       </c>
     </row>
@@ -3058,19 +3059,19 @@
         <v>0.64885839966485126</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" ref="G30" si="1">AVERAGE(G22:G29)</f>
+        <f>AVERAGE(G22:G29)</f>
         <v>0.66055286642811395</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" ref="H30" si="2">AVERAGE(H22:H29)</f>
+        <f>AVERAGE(H22:H29)</f>
         <v>0.60844632556321332</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" ref="I30" si="3">AVERAGE(I22:I29)</f>
+        <f>AVERAGE(I22:I29)</f>
         <v>0.688177424848745</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" ref="J30" si="4">AVERAGE(J22:J29)</f>
+        <f>AVERAGE(J22:J29)</f>
         <v>0.6483118752059791</v>
       </c>
     </row>
@@ -3488,19 +3489,19 @@
         <v>0.65775555090071225</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" ref="G46" si="5">AVERAGE(G38:G45)</f>
+        <f>AVERAGE(G38:G45)</f>
         <v>0.67427237489552172</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ref="H46" si="6">AVERAGE(H38:H45)</f>
+        <f>AVERAGE(H38:H45)</f>
         <v>0.61348281510612623</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" ref="I46" si="7">AVERAGE(I38:I45)</f>
+        <f>AVERAGE(I38:I45)</f>
         <v>0.70318566077405675</v>
       </c>
       <c r="J46" s="8">
-        <f t="shared" ref="J46" si="8">AVERAGE(J38:J45)</f>
+        <f>AVERAGE(J38:J45)</f>
         <v>0.65833423794009149</v>
       </c>
     </row>
@@ -3577,7 +3578,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,19 +3941,19 @@
         <v>0.87216694595726851</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" ref="G14:J14" si="0">AVERAGE(G6:G13)</f>
+        <f>AVERAGE(G6:G13)</f>
         <v>0.89032485645526149</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H6:H13)</f>
         <v>0.84973626549845971</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I6:I13)</f>
         <v>0.89719432965799684</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J6:J13)</f>
         <v>0.87346529757822833</v>
       </c>
     </row>
@@ -4370,19 +4371,19 @@
         <v>0.8066034771679933</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" ref="G30:J30" si="1">AVERAGE(G22:G29)</f>
+        <f>AVERAGE(G22:G29)</f>
         <v>0.83605479921415615</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H22:H29)</f>
         <v>0.76414206135509277</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(I22:I29)</f>
         <v>0.85042095305380172</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(J22:J29)</f>
         <v>0.80728150720444714</v>
       </c>
     </row>
@@ -4800,19 +4801,19 @@
         <v>0.83739526602429837</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" ref="G46:J46" si="2">AVERAGE(G38:G45)</f>
+        <f>AVERAGE(G38:G45)</f>
         <v>0.85515230546480536</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H38:H45)</f>
         <v>0.81150873008492319</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(I38:I45)</f>
         <v>0.86431361920931282</v>
       </c>
       <c r="J46" s="8">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(J38:J45)</f>
         <v>0.83791117464711795</v>
       </c>
     </row>
